--- a/translation/xlsx/_tsum_018.xlsx
+++ b/translation/xlsx/_tsum_018.xlsx
@@ -2634,7 +2634,7 @@
     <t>...But as soon as the manager of the store checked the sales that night, he'd find out.</t>
   </si>
   <si>
-    <t xml:space="preserve">......그래도 나중에 집안 식구 중 누군가와 카운터를 교대하면 수상한 구매한 내역을 알아차리겠지. </t>
+    <t xml:space="preserve">......그래도 나중에 집안 식구 중 누군가와 카운터를 교대하면 수상한 구매 내역을 알아차리겠지. </t>
   </si>
   <si>
     <t xml:space="preserve">......그렇지만, 나중에 집안 식구 중 누군가가 카운터를 교대하러 오면 수상한 구매한 내역이 있었다는 것이 발각될 것이다. </t>
@@ -2967,7 +2967,7 @@
     <t>I'm far too weak to stand alone against the terrifying scale of this conspiracy poised to instill fear throughout Japan!</t>
   </si>
   <si>
-    <t xml:space="preserve">전국이 떠들썩하게 만들 무시무시한 규모의 음모에 맞서기엔 나 혼자로는 역부족이니까! </t>
+    <t xml:space="preserve">전국을 떠들썩하게 만들 무시무시한 규모의 음모에 맞서기엔 나 혼자로는 역부족이니까! </t>
   </si>
   <si>
     <t xml:space="preserve">일본을 떠들썩하게 할 것이 틀림없는 무시무시한 규모의 음모에 대적하기 위해서는 나 혼자만으로는 너무도 부족해! </t>
@@ -6170,7 +6170,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6226,6 +6226,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -10286,7 +10289,7 @@
       <c r="C166" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D166" s="23" t="s">
         <v>872</v>
       </c>
       <c r="G166" s="3"/>
@@ -10769,7 +10772,7 @@
       <c r="C187" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="D187" s="23" t="s">
         <v>983</v>
       </c>
       <c r="G187" s="3"/>
@@ -15626,7 +15629,7 @@
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
       <c r="G411" s="3"/>
-      <c r="H411" s="23"/>
+      <c r="H411" s="24"/>
       <c r="I411" s="5"/>
       <c r="J411" s="5"/>
       <c r="K411" s="5"/>
@@ -16906,7 +16909,7 @@
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
       <c r="G539" s="3"/>
-      <c r="H539" s="23"/>
+      <c r="H539" s="24"/>
       <c r="I539" s="5"/>
       <c r="J539" s="5"/>
       <c r="K539" s="5"/>
@@ -18166,7 +18169,7 @@
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
       <c r="G665" s="3"/>
-      <c r="H665" s="23"/>
+      <c r="H665" s="24"/>
       <c r="I665" s="5"/>
       <c r="J665" s="5"/>
       <c r="K665" s="5"/>
